--- a/assignments/hw2/Websearch.xlsx
+++ b/assignments/hw2/Websearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucy-my.sharepoint.com/personal/ssofok02_ucy_ac_cy/Documents/EPL499/GitHub/cs499-fa22/assignments/hw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC104828F919727E5BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8985721C-3A15-4744-BE13-82AC9CBDF502}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_F25DC773A252ABDACC104828F919727E5BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C56020A-65D8-4B8C-8B1E-311616D36B40}"/>
   <bookViews>
     <workbookView xWindow="3615" yWindow="3615" windowWidth="21600" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>Threads</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>99th Percentile</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -95,6 +92,2277 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Operations/Sec</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1Index</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>333.33300000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-662C-4F2E-9A30-72A3ACE7F714}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2Index</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>142.857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-662C-4F2E-9A30-72A3ACE7F714}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4Index</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-662C-4F2E-9A30-72A3ACE7F714}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2120251007"/>
+        <c:axId val="2120251839"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2120251007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2120251839"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2120251839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2120251007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>99th Percentile Latency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1Index</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$24:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35.516800000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.7639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.371099999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.576900000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.744900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.406999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.197999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4E9-4ACD-B099-59BAADBC7411}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2Index</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$24:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$13:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34.091999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.134999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.744900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.137900000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.1021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.371099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B4E9-4ACD-B099-59BAADBC7411}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4Index</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$24:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$24:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17.6279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.449</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.502000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.887</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.930199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.069099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B4E9-4ACD-B099-59BAADBC7411}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="734851711"/>
+        <c:axId val="734844223"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="734851711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="734844223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="734844223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="734851711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7142</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4F63F0-CA7A-5C6A-E968-D8533057084F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26193</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC06FEBD-3217-2BD5-8DAB-DD4693E8F45A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,8 +2630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E31"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -460,8 +2728,8 @@
       <c r="A6">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
+      <c r="B6">
+        <v>1000</v>
       </c>
       <c r="C6">
         <v>4.8640100000000004</v>
@@ -494,8 +2762,8 @@
       <c r="A8">
         <v>64</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
+      <c r="B8">
+        <v>1000</v>
       </c>
       <c r="C8">
         <v>24.078099999999999</v>
@@ -630,8 +2898,8 @@
       <c r="A18">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
+      <c r="B18">
+        <v>1000</v>
       </c>
       <c r="C18">
         <v>11.3489</v>
@@ -766,8 +3034,8 @@
       <c r="A28">
         <v>16</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
+      <c r="B28">
+        <v>1000</v>
       </c>
       <c r="C28">
         <v>2.3300800000000002</v>
@@ -783,8 +3051,8 @@
       <c r="A29">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
+      <c r="B29">
+        <v>1000</v>
       </c>
       <c r="C29">
         <v>4.5500499999999997</v>
@@ -817,8 +3085,8 @@
       <c r="A31">
         <v>128</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
+      <c r="B31">
+        <v>1000</v>
       </c>
       <c r="C31">
         <v>15.934100000000001</v>
@@ -832,5 +3100,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/assignments/hw2/Websearch.xlsx
+++ b/assignments/hw2/Websearch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucy-my.sharepoint.com/personal/ssofok02_ucy_ac_cy/Documents/EPL499/GitHub/cs499-fa22/assignments/hw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_F25DC773A252ABDACC104828F919727E5BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C56020A-65D8-4B8C-8B1E-311616D36B40}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_F25DC773A252ABDACC104828F919727E5BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9326EAE-4972-4F4F-BE1B-22274CA110E9}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="3615" windowWidth="21600" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Threads</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>99th Percentile</t>
+  </si>
+  <si>
+    <t>1 Index Server</t>
+  </si>
+  <si>
+    <t>2 Index Servers</t>
+  </si>
+  <si>
+    <t>3 Index Servers</t>
   </si>
 </sst>
 </file>
@@ -75,8 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,7 +213,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -234,7 +246,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -304,7 +316,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$B$20</c:f>
+              <c:f>Sheet1!$B$14:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -374,7 +386,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$B$31</c:f>
+              <c:f>Sheet1!$B$25:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -497,6 +509,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Operations/Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -722,7 +789,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$24:$A$31</c:f>
+              <c:f>Sheet1!$A$25:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -755,7 +822,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:f>Sheet1!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -825,7 +892,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$24:$A$31</c:f>
+              <c:f>Sheet1!$A$25:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -858,7 +925,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$13:$E$20</c:f>
+              <c:f>Sheet1!$E$14:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -928,7 +995,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$24:$A$31</c:f>
+              <c:f>Sheet1!$A$25:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -961,7 +1028,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$24:$E$31</c:f>
+              <c:f>Sheet1!$E$25:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1084,6 +1151,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Miliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2365,6 +2487,48 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05D3298A-B5AE-436E-A6C2-36AD812E5900}" name="Table1" displayName="Table1" ref="A2:E10" totalsRowShown="0">
+  <autoFilter ref="A2:E10" xr:uid="{05D3298A-B5AE-436E-A6C2-36AD812E5900}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{69974722-E425-487D-BD9E-F7C19C7BEFB6}" name="Threads"/>
+    <tableColumn id="2" xr3:uid="{ABACACED-913D-4336-A74D-DAEDBFF573AE}" name="Ops/sec"/>
+    <tableColumn id="3" xr3:uid="{C5D06789-E3EB-419E-9E04-A86C78D6DC00}" name="50th Percentile"/>
+    <tableColumn id="4" xr3:uid="{32E9061F-4B05-47DC-B7CE-4FADF926921D}" name="90th Percentile"/>
+    <tableColumn id="5" xr3:uid="{4B816724-6021-466A-8D59-D2D79DF79423}" name="99th Percentile"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2E3C27C0-03FA-4913-B237-4F139B0D7208}" name="Table2" displayName="Table2" ref="A13:E21" totalsRowShown="0">
+  <autoFilter ref="A13:E21" xr:uid="{2E3C27C0-03FA-4913-B237-4F139B0D7208}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C03BCE82-D821-4AB8-A8E2-F00648B0351F}" name="Threads"/>
+    <tableColumn id="2" xr3:uid="{E13731AC-A1FF-40C6-92F5-0BA6B9194413}" name="Ops/sec"/>
+    <tableColumn id="3" xr3:uid="{6EA2AE1A-C363-41E4-97E1-D0A83CCAF7D6}" name="50th Percentile"/>
+    <tableColumn id="4" xr3:uid="{75C035B8-3EE7-4D50-9F4F-458EBCD99D14}" name="90th Percentile"/>
+    <tableColumn id="5" xr3:uid="{8FEB6DD0-D793-4690-B864-B9822745526F}" name="99th Percentile"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{16AF3AB3-EA26-4B00-84F8-3EF4469BB7EB}" name="Table3" displayName="Table3" ref="A24:E32" totalsRowShown="0">
+  <autoFilter ref="A24:E32" xr:uid="{16AF3AB3-EA26-4B00-84F8-3EF4469BB7EB}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{FD72AD5C-6ACC-4810-8161-FA1A9E2BD205}" name="Threads"/>
+    <tableColumn id="2" xr3:uid="{E59EBA61-2A52-49B0-B690-21B0F376D94E}" name="Ops/sec"/>
+    <tableColumn id="3" xr3:uid="{279C8793-A1A3-441B-8791-CBC18D667179}" name="50th Percentile"/>
+    <tableColumn id="4" xr3:uid="{554979B5-7B5B-497A-B6A9-7A0DA67F1707}" name="90th Percentile"/>
+    <tableColumn id="5" xr3:uid="{5BA68A6C-9E95-49E7-9F37-770352311EB4}" name="99th Percentile"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2628,478 +2792,506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="5" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>125</v>
-      </c>
-      <c r="C2">
-        <v>5.4619099999999996</v>
-      </c>
-      <c r="D2">
-        <v>14.485099999999999</v>
-      </c>
-      <c r="E2">
-        <v>35.516800000000003</v>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C3">
-        <v>6.31982</v>
+        <v>5.4619099999999996</v>
       </c>
       <c r="D3">
-        <v>17.2651</v>
+        <v>14.485099999999999</v>
       </c>
       <c r="E3">
-        <v>39.728999999999999</v>
+        <v>35.516800000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>333.33300000000003</v>
+        <v>250</v>
       </c>
       <c r="C4">
-        <v>6.3698699999999997</v>
+        <v>6.31982</v>
       </c>
       <c r="D4">
-        <v>15.591799999999999</v>
+        <v>17.2651</v>
       </c>
       <c r="E4">
-        <v>38.7639</v>
+        <v>39.728999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1000</v>
+        <v>333.33300000000003</v>
       </c>
       <c r="C5">
-        <v>4.3620599999999996</v>
+        <v>6.3698699999999997</v>
       </c>
       <c r="D5">
-        <v>11.686999999999999</v>
+        <v>15.591799999999999</v>
       </c>
       <c r="E5">
-        <v>40.371099999999998</v>
+        <v>38.7639</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>1000</v>
       </c>
       <c r="C6">
-        <v>4.8640100000000004</v>
+        <v>4.3620599999999996</v>
       </c>
       <c r="D6">
-        <v>11.1699</v>
+        <v>11.686999999999999</v>
       </c>
       <c r="E6">
-        <v>36.576900000000002</v>
+        <v>40.371099999999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>1000</v>
       </c>
       <c r="C7">
-        <v>11.277100000000001</v>
+        <v>4.8640100000000004</v>
       </c>
       <c r="D7">
-        <v>18.364999999999998</v>
+        <v>11.1699</v>
       </c>
       <c r="E7">
-        <v>45.744900000000001</v>
+        <v>36.576900000000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>1000</v>
       </c>
       <c r="C8">
-        <v>24.078099999999999</v>
+        <v>11.277100000000001</v>
       </c>
       <c r="D8">
-        <v>31.396000000000001</v>
+        <v>18.364999999999998</v>
       </c>
       <c r="E8">
-        <v>55.406999999999996</v>
+        <v>45.744900000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>1000</v>
       </c>
       <c r="C9">
+        <v>24.078099999999999</v>
+      </c>
+      <c r="D9">
+        <v>31.396000000000001</v>
+      </c>
+      <c r="E9">
+        <v>55.406999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>128</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
         <v>49.542000000000002</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>60.504899999999999</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>82.197999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="B13">
-        <v>142.857</v>
-      </c>
-      <c r="C13">
-        <v>5.08887</v>
-      </c>
-      <c r="D13">
-        <v>14.510999999999999</v>
-      </c>
-      <c r="E13">
-        <v>34.091999999999999</v>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>200</v>
+        <v>142.857</v>
       </c>
       <c r="C14">
-        <v>6.0639599999999998</v>
+        <v>5.08887</v>
       </c>
       <c r="D14">
-        <v>16.962900000000001</v>
+        <v>14.510999999999999</v>
       </c>
       <c r="E14">
-        <v>38.134999999999998</v>
+        <v>34.091999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C15">
-        <v>5.9899899999999997</v>
+        <v>6.0639599999999998</v>
       </c>
       <c r="D15">
-        <v>16.129899999999999</v>
+        <v>16.962900000000001</v>
       </c>
       <c r="E15">
-        <v>39.744900000000001</v>
+        <v>38.134999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C16">
-        <v>4.1169399999999996</v>
+        <v>5.9899899999999997</v>
       </c>
       <c r="D16">
-        <v>11.311999999999999</v>
+        <v>16.129899999999999</v>
       </c>
       <c r="E16">
-        <v>38.229999999999997</v>
+        <v>39.744900000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>1000</v>
       </c>
       <c r="C17">
-        <v>4.8530300000000004</v>
+        <v>4.1169399999999996</v>
       </c>
       <c r="D17">
-        <v>11.431900000000001</v>
+        <v>11.311999999999999</v>
       </c>
       <c r="E17">
-        <v>36.137900000000002</v>
+        <v>38.229999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>1000</v>
       </c>
       <c r="C18">
-        <v>11.3489</v>
+        <v>4.8530300000000004</v>
       </c>
       <c r="D18">
-        <v>16.847200000000001</v>
+        <v>11.431900000000001</v>
       </c>
       <c r="E18">
-        <v>44.1021</v>
+        <v>36.137900000000002</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>1000</v>
       </c>
       <c r="C19">
-        <v>24.4741</v>
+        <v>11.3489</v>
       </c>
       <c r="D19">
-        <v>33.235799999999998</v>
+        <v>16.847200000000001</v>
       </c>
       <c r="E19">
-        <v>55.371099999999998</v>
+        <v>44.1021</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="B20">
         <v>1000</v>
       </c>
       <c r="C20">
+        <v>24.4741</v>
+      </c>
+      <c r="D20">
+        <v>33.235799999999998</v>
+      </c>
+      <c r="E20">
+        <v>55.371099999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>128</v>
+      </c>
+      <c r="B21">
+        <v>1000</v>
+      </c>
+      <c r="C21">
         <v>45.774900000000002</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>59.045900000000003</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>77.73</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="B24">
-        <v>200</v>
-      </c>
-      <c r="C24">
-        <v>3.6682100000000002</v>
-      </c>
-      <c r="D24">
-        <v>7.1689499999999997</v>
-      </c>
-      <c r="E24">
-        <v>17.6279</v>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C25">
-        <v>4.2060500000000003</v>
+        <v>3.6682100000000002</v>
       </c>
       <c r="D25">
-        <v>7.62012</v>
+        <v>7.1689499999999997</v>
       </c>
       <c r="E25">
-        <v>17.884</v>
+        <v>17.6279</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C26">
-        <v>2.73291</v>
+        <v>4.2060500000000003</v>
       </c>
       <c r="D26">
-        <v>4.9541000000000004</v>
+        <v>7.62012</v>
       </c>
       <c r="E26">
-        <v>12.449</v>
+        <v>17.884</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B27">
         <v>1000</v>
       </c>
       <c r="C27">
-        <v>2.2570800000000002</v>
+        <v>2.73291</v>
       </c>
       <c r="D27">
-        <v>4.40991</v>
+        <v>4.9541000000000004</v>
       </c>
       <c r="E27">
-        <v>12.625</v>
+        <v>12.449</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>1000</v>
       </c>
       <c r="C28">
-        <v>2.3300800000000002</v>
+        <v>2.2570800000000002</v>
       </c>
       <c r="D28">
-        <v>4.1498999999999997</v>
+        <v>4.40991</v>
       </c>
       <c r="E28">
-        <v>10.502000000000001</v>
+        <v>12.625</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B29">
         <v>1000</v>
       </c>
       <c r="C29">
-        <v>4.5500499999999997</v>
+        <v>2.3300800000000002</v>
       </c>
       <c r="D29">
-        <v>7.6240199999999998</v>
+        <v>4.1498999999999997</v>
       </c>
       <c r="E29">
-        <v>15.887</v>
+        <v>10.502000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>1000</v>
       </c>
       <c r="C30">
-        <v>9.56494</v>
+        <v>4.5500499999999997</v>
       </c>
       <c r="D30">
-        <v>15.5649</v>
+        <v>7.6240199999999998</v>
       </c>
       <c r="E30">
-        <v>22.930199999999999</v>
+        <v>15.887</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="B31">
         <v>1000</v>
       </c>
       <c r="C31">
+        <v>9.56494</v>
+      </c>
+      <c r="D31">
+        <v>15.5649</v>
+      </c>
+      <c r="E31">
+        <v>22.930199999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>128</v>
+      </c>
+      <c r="B32">
+        <v>1000</v>
+      </c>
+      <c r="C32">
         <v>15.934100000000001</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>28.867899999999999</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>37.069099999999999</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>